--- a/ตัวอย่างExcel import/Document.xlsx
+++ b/ตัวอย่างExcel import/Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\testFlask\testFlask\ตัวอย่างExcel import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrueAcademy\QaWeb\ตัวอย่างExcel import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C9105-E29C-4029-87A9-7EA1F04B381F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DBC266-9B7E-42BD-B1D9-BFE50B5B9F4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkdoc" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>type</t>
   </si>
@@ -31,9 +28,6 @@
     <t>path</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>A002</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>Remark</t>
-  </si>
-  <si>
-    <t>Enable</t>
   </si>
 </sst>
 </file>
@@ -572,9 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -933,58 +925,53 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="8" max="8" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
